--- a/data/trans_dic/P16A17-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A17-Estudios-trans_dic.xlsx
@@ -612,16 +612,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.003301694271074017</v>
+        <v>0.00312932335098499</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.003092938965790871</v>
+        <v>0.003087580121198759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001256758837258506</v>
+        <v>0.001266059357172506</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.001365697581814735</v>
+        <v>0.001363055527897836</v>
       </c>
     </row>
     <row r="6">
@@ -632,16 +632,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01271789678097195</v>
+        <v>0.01251956772892681</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01321193340181971</v>
+        <v>0.01317979270332785</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01129527373400759</v>
+        <v>0.01102185425717455</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.009553952588457352</v>
+        <v>0.01017225013586175</v>
       </c>
     </row>
     <row r="7">
@@ -676,16 +676,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00429035875574209</v>
+        <v>0.003817764564598216</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001768724072341609</v>
+        <v>0.002236489477303444</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002488620638658127</v>
+        <v>0.002505789032880596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.002967712833423646</v>
+        <v>0.002878395413886608</v>
       </c>
     </row>
     <row r="9">
@@ -696,16 +696,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01259825911013009</v>
+        <v>0.01290755876151905</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.008276567391962062</v>
+        <v>0.00819511434562047</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.00878745963263142</v>
+        <v>0.008961801663519332</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.008093010654466194</v>
+        <v>0.008121164212734349</v>
       </c>
     </row>
     <row r="10">
@@ -729,7 +729,7 @@
         <v>0.006094602693557938</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.00539378129662013</v>
+        <v>0.005393781296620129</v>
       </c>
     </row>
     <row r="11">
@@ -740,16 +740,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002097206816097394</v>
+        <v>0.002095357835645561</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.004183351792621168</v>
+        <v>0.004045639604631126</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001978011901381378</v>
+        <v>0.00196537767905143</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001910205252101295</v>
+        <v>0.001955801924779603</v>
       </c>
     </row>
     <row r="12">
@@ -760,16 +760,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01854249451891715</v>
+        <v>0.01911627236945313</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02890754861338287</v>
+        <v>0.03018105603727116</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01631263713231999</v>
+        <v>0.01645975429396917</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01022710529593699</v>
+        <v>0.01072244874212888</v>
       </c>
     </row>
     <row r="13">
@@ -804,16 +804,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.004759827443151944</v>
+        <v>0.004661606530646006</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003800826928301043</v>
+        <v>0.003823896752314562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.003039815796538207</v>
+        <v>0.003041747860478832</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.003259486998786221</v>
+        <v>0.003314341895320496</v>
       </c>
     </row>
     <row r="15">
@@ -824,16 +824,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01039927954728383</v>
+        <v>0.01023752702259107</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.009857180582375004</v>
+        <v>0.009498234773717602</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.008146138400030237</v>
+        <v>0.007959733276763661</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.007388546038605569</v>
+        <v>0.007055618246353756</v>
       </c>
     </row>
     <row r="16">
@@ -981,16 +981,16 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>4336</v>
+        <v>4110</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4106</v>
+        <v>4099</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1250</v>
+        <v>1259</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="7">
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>16702</v>
+        <v>16441</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17539</v>
+        <v>17497</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11235</v>
+        <v>10963</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7835</v>
+        <v>8342</v>
       </c>
     </row>
     <row r="8">
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6812</v>
+        <v>6061</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3093</v>
+        <v>3911</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4948</v>
+        <v>4982</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6435</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="11">
@@ -1085,16 +1085,16 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20002</v>
+        <v>20493</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>14474</v>
+        <v>14331</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17472</v>
+        <v>17819</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>17548</v>
+        <v>17609</v>
       </c>
     </row>
     <row r="12">
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1906</v>
+        <v>1843</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1086</v>
+        <v>1079</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1399</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="15">
@@ -1169,16 +1169,16 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8834</v>
+        <v>9107</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13169</v>
+        <v>13749</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8958</v>
+        <v>9039</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>7493</v>
+        <v>7856</v>
       </c>
     </row>
     <row r="16">
@@ -1233,16 +1233,16 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16076</v>
+        <v>15744</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13424</v>
+        <v>13505</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10737</v>
+        <v>10744</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12129</v>
+        <v>12333</v>
       </c>
     </row>
     <row r="19">
@@ -1253,16 +1253,16 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35122</v>
+        <v>34576</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>34814</v>
+        <v>33546</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>28773</v>
+        <v>28115</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>27493</v>
+        <v>26254</v>
       </c>
     </row>
     <row r="20">
